--- a/ApolloQA/Data/RatingManual/GA/OR00021.MotorCarrierFilingTypeFactors.xlsx
+++ b/ApolloQA/Data/RatingManual/GA/OR00021.MotorCarrierFilingTypeFactors.xlsx
@@ -2,7 +2,7 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00021.MotorCarrierFilingTypeFactors" sheetId="1" r:id="R4dca74b0a0794257"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="OR00021.MotorCarrierFilingTypeFactors" sheetId="1" r:id="Rac3f4cf8d3634367"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -12,15 +12,39 @@
   <x:sheetData>
     <x:row>
       <x:c t="str">
-        <x:v>Motor Carrier Filing Type</x:v>
+        <x:v>Limit</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>Motor Carrier Filing Type Factor</x:v>
+        <x:v>Limit Factor</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>None</x:v>
+        <x:v>$5,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.4000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$10,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.5000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$25,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>0.7500</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$50,000</x:v>
       </x:c>
       <x:c t="str">
         <x:v>1.0000</x:v>
@@ -28,18 +52,42 @@
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Single State</x:v>
+        <x:v>$75,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.0500</x:v>
+        <x:v>1.5000</x:v>
       </x:c>
     </x:row>
     <x:row>
       <x:c t="str">
-        <x:v>Multi-State or Federal (ICC/FHWA)</x:v>
+        <x:v>$100,000</x:v>
       </x:c>
       <x:c t="str">
-        <x:v>1.1500</x:v>
+        <x:v>2.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$250,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>3.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$500,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>5.0000</x:v>
+      </x:c>
+    </x:row>
+    <x:row>
+      <x:c t="str">
+        <x:v>$1,000,000</x:v>
+      </x:c>
+      <x:c t="str">
+        <x:v>10.0000</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
